--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,102 +40,99 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>serious</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -160,94 +157,85 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>real</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>watched</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>’</t>
@@ -611,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -733,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,16 +739,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,10 +771,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -830,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9326923076923077</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6">
+        <v>0.86</v>
+      </c>
+      <c r="L6">
+        <v>43</v>
+      </c>
+      <c r="M6">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6">
-        <v>0.9</v>
-      </c>
-      <c r="L6">
-        <v>45</v>
-      </c>
-      <c r="M6">
-        <v>45</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,10 +871,10 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>0.8</v>
@@ -930,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8939393939393939</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8823529411764706</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>0.6266666666666667</v>
@@ -1080,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,16 +1139,16 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.5862068965517241</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1180,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8421052631578947</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>0.55</v>
@@ -1230,38 +1218,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>9</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1272,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,31 +1286,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.3703703703703703</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.3541666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,37 +1418,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.2682926829268293</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1468,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.2608695652173913</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1518,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6521739130434783</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C20">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.1864406779661017</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6428571428571429</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.180327868852459</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.1666666666666667</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1668,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.1666666666666667</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L23">
         <v>9</v>
@@ -1722,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1748,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.1438979963570128</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L24">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1772,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>940</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,10 +1771,10 @@
         <v>0.5</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1798,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25">
-        <v>0.1230769230769231</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,13 +1818,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4782608695652174</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1848,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26">
-        <v>0.1157894736842105</v>
+        <v>0.1238615664845173</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1872,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>84</v>
+        <v>962</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,13 +1868,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4615384615384616</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1898,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K27">
-        <v>0.1111111111111111</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1930,13 +1918,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4615384615384616</v>
+        <v>0.45</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1948,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28">
-        <v>0.1058823529411765</v>
+        <v>0.08833922261484099</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1972,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,13 +1968,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4468085106382979</v>
+        <v>0.4375</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1998,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K29">
-        <v>0.09859154929577464</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2022,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2030,13 +2018,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4375</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2048,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30">
-        <v>0.07420494699646643</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2072,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>262</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2080,13 +2068,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4166666666666667</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2098,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31">
-        <v>0.072992700729927</v>
+        <v>0.05396825396825397</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2122,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>127</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2130,13 +2118,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2148,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32">
-        <v>0.0572289156626506</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2172,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>626</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2180,13 +2168,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2198,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K33">
-        <v>0.05194805194805195</v>
+        <v>0.03765060240963856</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2222,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>584</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2230,13 +2218,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2248,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K34">
-        <v>0.04629629629629629</v>
+        <v>0.02995391705069124</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2272,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>515</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2280,13 +2268,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.25</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2298,159 +2286,57 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <v>11</v>
+      </c>
+      <c r="N35">
+        <v>0.55</v>
+      </c>
+      <c r="O35">
+        <v>0.45</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K35">
-        <v>0.0253968253968254</v>
-      </c>
-      <c r="L35">
-        <v>8</v>
-      </c>
-      <c r="M35">
-        <v>8</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="C36">
-        <v>16</v>
-      </c>
-      <c r="D36">
-        <v>16</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>62</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K36">
-        <v>0.02534562211981567</v>
+        <v>0.0141025641025641</v>
       </c>
       <c r="L36">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.02430555555555556</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.02052785923753666</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39">
-        <v>0.0204865556978233</v>
-      </c>
-      <c r="L39">
-        <v>16</v>
-      </c>
-      <c r="M39">
-        <v>16</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
